--- a/Git/03_まとめ/GitとSVN比較まとめ（松島）.xlsx
+++ b/Git/03_まとめ/GitとSVN比較まとめ（松島）.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="GitとSubversionの比較" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gitインストール参考URL" sheetId="2" r:id="rId2"/>
+    <sheet name="便利になること" sheetId="4" r:id="rId3"/>
+    <sheet name="参考文献" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>GitとSubversionの比較</t>
     <rPh sb="15" eb="17">
@@ -105,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スナップショット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共有リポジトリのほかに、自分専用のリポジトリをローカルPCに持ち、その上で作業をしていきます。</t>
     <rPh sb="0" eb="2">
       <t>キョウユウ</t>
@@ -131,18 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Subversion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Git</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェンジセット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■ブランチ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,28 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Subversionにはブランチという機能がなく、代わりに簡易コピーという機能で疑似的にブランチを再現しています。</t>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カンイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ギジテキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>簡易コピーを使ってディレクトリをコピーすることで、コピー元とは別々のリビジョンを持つことができます。</t>
     <rPh sb="0" eb="2">
       <t>カンイ</t>
@@ -238,63 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>つまりSubversionで「ブランチを切る」とは、ディレクトリのコピーをする事と同義になります。（実際には物理的なコピーではなく、ファイル容量が2倍になるわけではない。）</t>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ドウギ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gitで「ブランチを切る」とは、特定のコミットを指すハッシュ値を記録したファイルを作るということです。</t>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■差分取得</t>
-    <rPh sb="1" eb="3">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ローカルリポジトリは共有リポジトリを丸ごとコピーしたもので、今までのファイルの状態やコミット履歴、コメントなど、リポジトリの状態すべてが含まれています。</t>
     <rPh sb="10" eb="12">
       <t>キョウユウ</t>
@@ -517,16 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※この時点ではまだ枝分かれしません。</t>
-    <rPh sb="3" eb="5">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エダワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※ブランチを切り替えてコミットした時点で初めて枝分かれする。</t>
     <rPh sb="6" eb="7">
       <t>キ</t>
@@ -542,6 +438,701 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>エダワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※この時点ではまだ枝分かれしない。</t>
+    <rPh sb="3" eb="5">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エダワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ロック機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitにはファイルのロック機能がありません。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合が起きたら手動でマージすれば良いというのがGitの考え方です。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subversionにはブランチという機能がなく、簡易コピーという機能で疑似的にブランチを再現しています。</t>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ギジテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitで「ブランチを切る」とは、特定のコミットを表すハッシュ値を記録したファイルを作るということです。</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1～100を記述したファイルに対して、最後の行に「101」を加えてコミットした場合</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subversionでは、「101」の箇所のみを差分として保持します。</t>
+    <rPh sb="19" eb="21">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitでは、1～100を記述したファイルと、1～101を記述した両方のファイルを保持します。</t>
+    <rPh sb="12" eb="14">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分を記録してバージョン管理します。</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナップショットを記録してバージョン管理します。</t>
+    <rPh sb="9" eb="11">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ファイルは最初の１つだけで、あとは差分だけを記録していきます。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、リポジトリ容量を節約できます。</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（容量節約のため、ファイルに変更が無い場合は、既に格納してある以前のファイルへのリンクを格納します。）</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツヤク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ファイルがいくつも存在することになるので、その分容量が必要になります。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■データ管理の考え方</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットをするとき、その時の全ファイルの状態のスナップショットを撮り、記録していきます。</t>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン間の差分取得をするとき、</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subversionでは隣り合ったバージョンでなければ、バージョン間の変更を足し合わせて計算しなければなりません。</t>
+    <rPh sb="12" eb="13">
+      <t>トナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitではそれぞれのバージョンのファイルを取り出して比較するだけなので、差分取得が速いというメリットがあります。</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Subversion&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Git&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;Git&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまりSubversionで「ブランチを切る」とは、ディレクトリのコピーをする事と同義になります。（実際には物理的なコピーではなく、リポジトリ容量が2倍になるわけではない。）</t>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://tasuwo.github.io/blog/2015/03/19/about-git/</t>
+  </si>
+  <si>
+    <t>http://xkazuki.hatenablog.com/entry/2016/08/22/112034</t>
+  </si>
+  <si>
+    <t>・Gitではじめるバージョン管理 〜ローカルリポジトリでファイルを管理してみよう〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitの基礎知識をまとめてみたよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitの基本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・公式</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/book/ja/v2/使い始める-Gitのインストール</t>
+  </si>
+  <si>
+    <t>http://tracpath.com/bootcamp/learning_git_sourcetree.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitクライアント! SourceTree の使い方 ～GUIでGitを使おう～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば一通り実装が完了して、デバッグ用にprintfを加えていきたい場面を想定</t>
+  </si>
+  <si>
+    <t>実装完了→printfを加えてデバッグ→printfの行だけ削除→コミット</t>
+  </si>
+  <si>
+    <t>という流れになる。</t>
+  </si>
+  <si>
+    <t>これだと消し忘れがあるかもしれないし、余計な行を消してしまうかもしれない。</t>
+  </si>
+  <si>
+    <t>（printfを加える前のファイルをバックアップしておくという手もあるが、それは手動でバージョン管理しているということ。</t>
+  </si>
+  <si>
+    <t>実装が完了した時点で一度コミットする。（ローカルなのでいくらコミットしても周りに影響を与えない。）</t>
+  </si>
+  <si>
+    <t>→printfを加えてデバッグ</t>
+  </si>
+  <si>
+    <t>→デバッグが終わったら、コミットした時点に戻れば良い。</t>
+  </si>
+  <si>
+    <t>他にも、複数の実装パターンを検討したいときにも便利。</t>
+  </si>
+  <si>
+    <t>まず１つのパターンをコミットしておけば、別のパターンを気軽に試すことができる。</t>
+  </si>
+  <si>
+    <t>この場合は気に入った方のコミットを残せば良い。</t>
+  </si>
+  <si>
+    <t>コードレビューしてもらうためには、一度共有リポジトリにコミットする必要がある。</t>
+  </si>
+  <si>
+    <t>何か指摘があった場合、修正してから再度コミットするという流れになるため、余計なコミット履歴が残ってしまう。</t>
+  </si>
+  <si>
+    <t>コミット履歴を消すことも困難。</t>
+  </si>
+  <si>
+    <t>ローカル作業のコミットは取り消しすることができるため、履歴を綺麗にしてからPushすることができる。</t>
+  </si>
+  <si>
+    <t>またプルリクエストを使うことでレビュー担当者のチェックを間に入れることができる。</t>
+  </si>
+  <si>
+    <t>問題がなければ指定ブランチにマージされ、問題があれば拒否して修正してもらえば良いため、余計な履歴が残らない。</t>
+  </si>
+  <si>
+    <t>■ローカルにリポジトリがあるため、個人の作業をバージョン管理できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ SVNの場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gitの場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■コミット履歴が綺麗になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ソーシャルコーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubなどのホスティングサービスを使うことで、</t>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ上でスケジュールの管理や、掲示板を使って作業内容について相談、議論したり、</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ギロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■オフラインでなんでもできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの確認をしたり、過去のファイルの状態を確認するときも、</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルにリポジトリがあるのでオフラインで作業できる。</t>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitに移行すると便利になること</t>
+    <rPh sb="9" eb="11">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ブランチを気軽に使える</t>
+    <rPh sb="6" eb="8">
+      <t>キガル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチは一瞬で作成できるし、容量も圧迫しない。</t>
+    <rPh sb="5" eb="7">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アッパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散型であるため、ブランチとの相性が良い。ブランチの切り替えも一瞬で行える。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subversionはブランチをリモート上に作るため、切り替えには時間がかかるし、</t>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信が途絶えると切り替えられなくなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■差分取得が速い</t>
+    <rPh sb="1" eb="3">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subversionは差分を管理する。</t>
+    <rPh sb="11" eb="13">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Giｔはスナップショットを管理する。</t>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン間の比較をするとき、Gitは単純に２つのファイルを比較するだけなので、差分取得が速い。</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルリクエストを使ってソースコードレビューを行ったりなどができる。</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -550,7 +1141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +1179,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,12 +1206,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,8 +1227,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -944,13 +1551,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>88450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +1594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>130950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1030,13 +1637,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>157125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1073,13 +1680,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>2325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1110,6 +1717,270 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="12906374"/>
+          <a:ext cx="4762500" cy="2495551"/>
+          <a:chOff x="0" y="25136474"/>
+          <a:chExt cx="4762500" cy="2495551"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1695450" y="25136474"/>
+            <a:ext cx="1600200" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>差分を管理（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>SVN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="図 16"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="25507950"/>
+            <a:ext cx="4762500" cy="2124075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5486400" y="12915899"/>
+          <a:ext cx="4762500" cy="2476501"/>
+          <a:chOff x="5486400" y="25145999"/>
+          <a:chExt cx="4762500" cy="2476501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5486400" y="25507950"/>
+            <a:ext cx="4762500" cy="2114550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6515099" y="25145999"/>
+            <a:ext cx="2733676" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>スナップショットを管理（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Git</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Arial Unicode MS" panose="020B0604020202020204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1402,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +2294,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1438,7 +2309,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1448,12 +2319,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1509,168 +2380,254 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L36"/>
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="L40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>19</v>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F91" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F92" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F102" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F103" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F104" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F112" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F123" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F50" s="2" t="s">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F124" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F125" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F51" s="2" t="s">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F126" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F52" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F61" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F62" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F63" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F71" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F72" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F83" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F84" s="2" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F85" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
-        <v>6</v>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1683,26 +2640,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>